--- a/gundam-dainihonkaiga/checklist.xlsx
+++ b/gundam-dainihonkaiga/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gundam-dainihonkaiga/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D03EE5-12A2-E446-985A-B020DB2E4026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3359329-C3AB-8343-AF82-F9D158863A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{FBD90F8B-5F24-EC4A-840C-A87B6B778ACF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{FBD90F8B-5F24-EC4A-840C-A87B6B778ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>english</t>
   </si>
   <si>
-    <t>publsiher</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Gundam 0079 RPG</t>
+  </si>
+  <si>
+    <t>publisher</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,13 +460,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -474,19 +474,19 @@
         <v>1990</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -494,19 +494,19 @@
         <v>1991</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
